--- a/data/trans_orig/P16A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8916</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4179</v>
+        <v>3906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17368</v>
+        <v>17297</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01804556695205537</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008457947473062284</v>
+        <v>0.007905740361420735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03515273810214973</v>
+        <v>0.03500983305234014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>7465</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3529</v>
+        <v>3692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14527</v>
+        <v>14158</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01596799767511066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007548543590222867</v>
+        <v>0.007898084739826524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03107427413390363</v>
+        <v>0.03028562464480742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -786,19 +786,19 @@
         <v>16381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9690</v>
+        <v>9386</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26512</v>
+        <v>25847</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01703549156773862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01007769528472559</v>
+        <v>0.009760895191738336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02757232400238156</v>
+        <v>0.02688089695731784</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>485148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>476696</v>
+        <v>476767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489885</v>
+        <v>490158</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9819544330479446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9648472618978501</v>
+        <v>0.9649901669476598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9915420525269377</v>
+        <v>0.9920942596385792</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>480</v>
@@ -836,19 +836,19 @@
         <v>460024</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>452962</v>
+        <v>453331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463960</v>
+        <v>463797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9840320023248893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9689257258660963</v>
+        <v>0.9697143753551924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9924514564097771</v>
+        <v>0.9921019152601733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>971</v>
@@ -857,19 +857,19 @@
         <v>945172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>935041</v>
+        <v>935706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>951863</v>
+        <v>952167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9829645084322614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9724276759976178</v>
+        <v>0.9731191030426821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9899223047152744</v>
+        <v>0.9902391048082616</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6708</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2989</v>
+        <v>2787</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13796</v>
+        <v>13048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00911999930394556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004064582400245743</v>
+        <v>0.003788890665994984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0187576573058177</v>
+        <v>0.0177406540007393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>16267</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9415</v>
+        <v>10001</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27083</v>
+        <v>26047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02600726012849431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01505273675823421</v>
+        <v>0.01598938722685452</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04329889220577544</v>
+        <v>0.04164237557688087</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>22975</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15436</v>
+        <v>15070</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34753</v>
+        <v>33140</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01688121432074972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.011342030373686</v>
+        <v>0.01107267742705812</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.025535563559907</v>
+        <v>0.0243504061776392</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>728781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721693</v>
+        <v>722441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732500</v>
+        <v>732702</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9908800006960544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9812423426941806</v>
+        <v>0.9822593459992608</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9959354175997541</v>
+        <v>0.996211109334005</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>575</v>
@@ -1053,19 +1053,19 @@
         <v>609227</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>598411</v>
+        <v>599447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>616079</v>
+        <v>615493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9739927398715057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9567011077942242</v>
+        <v>0.9583576244231189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9849472632417657</v>
+        <v>0.9840106127731455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1271</v>
@@ -1074,19 +1074,19 @@
         <v>1338007</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1326229</v>
+        <v>1327842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1345546</v>
+        <v>1345912</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9831187856792503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.974464436440093</v>
+        <v>0.9756495938223612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.988657969626314</v>
+        <v>0.9889273225729419</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1822</v>
+        <v>1911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10960</v>
+        <v>10917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007720589163140668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002857853039923361</v>
+        <v>0.002997520886628531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01718800215888047</v>
+        <v>0.01712131553382545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>14011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7838</v>
+        <v>7901</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24137</v>
+        <v>24537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02031377621084608</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0113633737844314</v>
+        <v>0.01145495792783246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03499369113435701</v>
+        <v>0.03557451910943567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1220,19 +1220,19 @@
         <v>18934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12005</v>
+        <v>11942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29775</v>
+        <v>30728</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01426429855417116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009044193865825499</v>
+        <v>0.008996644429035293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02243086710909636</v>
+        <v>0.02314899127224361</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>632726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>626689</v>
+        <v>626732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>635827</v>
+        <v>635738</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9922794108368593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9828119978411195</v>
+        <v>0.9828786844661742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9971421469600765</v>
+        <v>0.9970024791133715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -1270,19 +1270,19 @@
         <v>675733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>665607</v>
+        <v>665207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681906</v>
+        <v>681843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9796862237891539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.965006308865643</v>
+        <v>0.9644254808905643</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9886366262155686</v>
+        <v>0.9885450420721675</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1252</v>
@@ -1291,19 +1291,19 @@
         <v>1308460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1297619</v>
+        <v>1296666</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315389</v>
+        <v>1315452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9857357014458289</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9775691328909034</v>
+        <v>0.9768510087277562</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9909558061341746</v>
+        <v>0.9910033555709645</v>
       </c>
     </row>
     <row r="12">
@@ -1398,16 +1398,16 @@
         <v>3783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16743</v>
+        <v>16482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01603700695987069</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00728617538677914</v>
+        <v>0.007287344150107671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0322514481060102</v>
+        <v>0.03174881948019136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1416,19 +1416,19 @@
         <v>7147</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3015</v>
+        <v>2908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13780</v>
+        <v>14442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01386036805479405</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005847061716465807</v>
+        <v>0.005640264839691272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02672413907945565</v>
+        <v>0.02800683777000951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1437,19 +1437,19 @@
         <v>15473</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8656</v>
+        <v>9006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24779</v>
+        <v>24610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01495237387913679</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008365367736303168</v>
+        <v>0.008703082590992377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02394607552801963</v>
+        <v>0.02378304679709459</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>510821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>502404</v>
+        <v>502665</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>515364</v>
@@ -1475,10 +1475,10 @@
         <v>0.9839629930401294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9677485518939899</v>
+        <v>0.9682511805198089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9927138246132209</v>
+        <v>0.9927126558498925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -1487,19 +1487,19 @@
         <v>508495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>501862</v>
+        <v>501200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>512627</v>
+        <v>512734</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9861396319452059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9732758609205441</v>
+        <v>0.9719931622299904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9941529382835342</v>
+        <v>0.9943597351603087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>971</v>
@@ -1508,19 +1508,19 @@
         <v>1019316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1010010</v>
+        <v>1010179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1026133</v>
+        <v>1025783</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9850476261208632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9760539244719805</v>
+        <v>0.9762169532029055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9916346322636969</v>
+        <v>0.9912969174090076</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12709</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7038</v>
+        <v>6703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20899</v>
+        <v>21400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0328654456852075</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01819963384065543</v>
+        <v>0.01733253576691498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05404434704396482</v>
+        <v>0.05533814019928974</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1633,19 +1633,19 @@
         <v>9237</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4337</v>
+        <v>4393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16765</v>
+        <v>17133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02286411105617085</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01073619097317272</v>
+        <v>0.01087535851569402</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04149873598087099</v>
+        <v>0.04240984468657859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1654,19 +1654,19 @@
         <v>21946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14146</v>
+        <v>13981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33123</v>
+        <v>32711</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02775551862236635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01789073450214518</v>
+        <v>0.0176812986838947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04189094262908462</v>
+        <v>0.04137050842963987</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>374001</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>365811</v>
+        <v>365310</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>379672</v>
+        <v>380007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9671345543147924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9459556529560351</v>
+        <v>0.9446618598007104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9818003661593443</v>
+        <v>0.982667464233085</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>387</v>
@@ -1704,19 +1704,19 @@
         <v>394749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>387221</v>
+        <v>386853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399649</v>
+        <v>399593</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9771358889438292</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9585012640191288</v>
+        <v>0.9575901553134216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9892638090268272</v>
+        <v>0.9891246414843061</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>766</v>
@@ -1725,19 +1725,19 @@
         <v>768750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>757573</v>
+        <v>757985</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>776550</v>
+        <v>776715</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9722444813776336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9581090573709153</v>
+        <v>0.9586294915703601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9821092654978548</v>
+        <v>0.9823187013161053</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>8990</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4451</v>
+        <v>4605</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15970</v>
+        <v>15374</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03072797077552179</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01521433886177255</v>
+        <v>0.01573919229858617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05458438791136826</v>
+        <v>0.05254701196850758</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1850,19 +1850,19 @@
         <v>9901</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5306</v>
+        <v>5412</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18063</v>
+        <v>17811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02887194133862721</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01547200829492357</v>
+        <v>0.0157811642804007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0526713213690705</v>
+        <v>0.05193595943017179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1871,19 +1871,19 @@
         <v>18892</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11892</v>
+        <v>11336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28378</v>
+        <v>27855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02972643093024277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01871195906967859</v>
+        <v>0.01783698787644435</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04465299082410704</v>
+        <v>0.04382984107303664</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>283593</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276613</v>
+        <v>277209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>288132</v>
+        <v>287978</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9692720292244782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.945415612088632</v>
+        <v>0.9474529880314925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9847856611382275</v>
+        <v>0.9842608077014138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -1921,19 +1921,19 @@
         <v>333033</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>324871</v>
+        <v>325123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>337628</v>
+        <v>337522</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9711280586613728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9473286786309295</v>
+        <v>0.9480640405698281</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9845279917050764</v>
+        <v>0.9842188357195993</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>653</v>
@@ -1942,19 +1942,19 @@
         <v>616625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>607139</v>
+        <v>607662</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>623625</v>
+        <v>624181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9702735690697573</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.955347009175893</v>
+        <v>0.9561701589269634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9812880409303215</v>
+        <v>0.9821630121235557</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>8091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3535</v>
+        <v>3813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16455</v>
+        <v>15641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0385489161204166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01684330308450054</v>
+        <v>0.01816543015523382</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07840194387985742</v>
+        <v>0.07452433481092222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2067,19 +2067,19 @@
         <v>10761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5730</v>
+        <v>4962</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19777</v>
+        <v>19223</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03222773556185678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01716001079495409</v>
+        <v>0.01486007799309832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0592278293926741</v>
+        <v>0.05757023027550034</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -2088,19 +2088,19 @@
         <v>18852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11417</v>
+        <v>11421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30101</v>
+        <v>30693</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03466747506518495</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02099597476778502</v>
+        <v>0.02100234065056289</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05535476920283346</v>
+        <v>0.05644201391829568</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>201792</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193428</v>
+        <v>194242</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>206348</v>
+        <v>206070</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9614510838795834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9215980561201426</v>
+        <v>0.9254756651890778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9831566969154995</v>
+        <v>0.981834569844766</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>281</v>
@@ -2138,19 +2138,19 @@
         <v>323147</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>314131</v>
+        <v>314685</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>328178</v>
+        <v>328946</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9677722644381432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.940772170607326</v>
+        <v>0.9424297697245009</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.982839989205046</v>
+        <v>0.9851399220069017</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>493</v>
@@ -2159,19 +2159,19 @@
         <v>524939</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>513690</v>
+        <v>513098</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>532374</v>
+        <v>532370</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.965332524934815</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9446452307971663</v>
+        <v>0.9435579860817042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.979004025232215</v>
+        <v>0.9789976593494368</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>58663</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0179093597392352</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2284,19 +2284,19 @@
         <v>74790</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02213235544410175</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>133</v>
@@ -2305,19 +2305,19 @@
         <v>133452</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02005375205686265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3216862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3200094</v>
+        <v>3199886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3230356</v>
+        <v>3230362</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9820906402607648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9769712594201136</v>
+        <v>0.9769079036384323</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.98621022564296</v>
+        <v>0.9862118949606854</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3223</v>
@@ -2355,19 +2355,19 @@
         <v>3304407</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3283507</v>
+        <v>3284576</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3319574</v>
+        <v>3318872</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9778676445558983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9716827537505212</v>
+        <v>0.9719988409497001</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9823559104578191</v>
+        <v>0.9821481074804598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6377</v>
@@ -2376,19 +2376,19 @@
         <v>6521270</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6496220</v>
+        <v>6496880</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6543333</v>
+        <v>6543671</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9799462479431373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9761820013545064</v>
+        <v>0.9762811317427196</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9832616324709988</v>
+        <v>0.9833124658157657</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>9057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4759</v>
+        <v>4068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16698</v>
+        <v>16948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01998856049261948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01050373536624106</v>
+        <v>0.008978243195192026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0368525064019584</v>
+        <v>0.03740416197228952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2744,19 +2744,19 @@
         <v>14927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9066</v>
+        <v>8948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24260</v>
+        <v>24862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03476714021887334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02111615568538669</v>
+        <v>0.02084089048139954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05650644824106363</v>
+        <v>0.05790858463531891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -2765,19 +2765,19 @@
         <v>23984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15794</v>
+        <v>15947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33768</v>
+        <v>33872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02717884144571478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01789823810005</v>
+        <v>0.01807121792446834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03826617474139299</v>
+        <v>0.03838447227190639</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>444048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>436407</v>
+        <v>436157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448346</v>
+        <v>449037</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9800114395073806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9631474935980411</v>
+        <v>0.9625958380277105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9894962646337588</v>
+        <v>0.9910217568048081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>405</v>
@@ -2815,19 +2815,19 @@
         <v>414412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>405079</v>
+        <v>404477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>420273</v>
+        <v>420391</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9652328597811266</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9434935517589361</v>
+        <v>0.942091415364681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9788838443146133</v>
+        <v>0.9791591095186004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>841</v>
@@ -2836,19 +2836,19 @@
         <v>858461</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>848677</v>
+        <v>848573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>866651</v>
+        <v>866498</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9728211585542852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9617338252586072</v>
+        <v>0.9616155277280937</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9821017618999501</v>
+        <v>0.9819287820755317</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>19298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11687</v>
+        <v>11766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30323</v>
+        <v>31441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02812129742817201</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01703066796399279</v>
+        <v>0.01714600182699139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04418782840986305</v>
+        <v>0.04581632175545019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2961,19 +2961,19 @@
         <v>26898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17197</v>
+        <v>17260</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39688</v>
+        <v>40779</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04407727890944554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02818049962132053</v>
+        <v>0.0282833210379735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06503513123195066</v>
+        <v>0.06682324617606857</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2982,19 +2982,19 @@
         <v>46196</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33199</v>
+        <v>33983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61783</v>
+        <v>62114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03563173101764637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02560686436690651</v>
+        <v>0.02621173500078378</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0476540948612911</v>
+        <v>0.04790960583478286</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>666940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>655915</v>
+        <v>654797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>674551</v>
+        <v>674472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.971878702571828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9558121715901358</v>
+        <v>0.9541836782445496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9829693320360071</v>
+        <v>0.9828539981730082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>548</v>
@@ -3032,19 +3032,19 @@
         <v>583357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>570567</v>
+        <v>569476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>593058</v>
+        <v>592995</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9559227210905544</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.93496486876805</v>
+        <v>0.9331767538239322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9718195003786796</v>
+        <v>0.9717166789620265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1196</v>
@@ -3053,19 +3053,19 @@
         <v>1250297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1234710</v>
+        <v>1234379</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1263294</v>
+        <v>1262510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9643682689823536</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9523459051387089</v>
+        <v>0.9520903941652171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9743931356330935</v>
+        <v>0.9737882649992162</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>15711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8957</v>
+        <v>9201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25323</v>
+        <v>25190</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02313350137224296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01318801411495509</v>
+        <v>0.01354736526060633</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03728504417623819</v>
+        <v>0.03708964666488618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3178,19 +3178,19 @@
         <v>18386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11565</v>
+        <v>10717</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28743</v>
+        <v>29470</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02608150257945527</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0164053291808737</v>
+        <v>0.01520244470984742</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04077325006192108</v>
+        <v>0.04180573565091804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -3199,19 +3199,19 @@
         <v>34097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24274</v>
+        <v>23410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47875</v>
+        <v>47946</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02463495398053509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01753748831485129</v>
+        <v>0.01691367714081494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0345890661011731</v>
+        <v>0.03464078929533185</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>663449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>653837</v>
+        <v>653970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670203</v>
+        <v>669959</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9768664986277571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9627149558237618</v>
+        <v>0.9629103533351139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9868119858850449</v>
+        <v>0.9864526347393938</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -3249,19 +3249,19 @@
         <v>686551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676194</v>
+        <v>675467</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>693372</v>
+        <v>694220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9739184974205447</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9592267499380788</v>
+        <v>0.9581942643490818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9835946708191262</v>
+        <v>0.9847975552901524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1278</v>
@@ -3270,19 +3270,19 @@
         <v>1350000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1336222</v>
+        <v>1336151</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1359823</v>
+        <v>1360687</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9753650460194649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9654109338988268</v>
+        <v>0.965359210704668</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9824625116851486</v>
+        <v>0.9830863228591851</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>12003</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6044</v>
+        <v>6005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21450</v>
+        <v>22265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01952920526790325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0098335712774398</v>
+        <v>0.00977013107198115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03489926782932123</v>
+        <v>0.03622591750926397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3395,19 +3395,19 @@
         <v>9779</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4446</v>
+        <v>4405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17525</v>
+        <v>17433</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01592523129996255</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007239543900905869</v>
+        <v>0.007173692296872218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0285386976073433</v>
+        <v>0.0283885823800613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3416,19 +3416,19 @@
         <v>21782</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13582</v>
+        <v>13831</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34622</v>
+        <v>32714</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0177280162918877</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01105376406024636</v>
+        <v>0.01125650668913831</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02817767405743241</v>
+        <v>0.02662526707160246</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>602614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>593167</v>
+        <v>592352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608573</v>
+        <v>608612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9804707947320968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9651007321706788</v>
+        <v>0.963774082490736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901664287225602</v>
+        <v>0.9902298689280189</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>528</v>
@@ -3466,19 +3466,19 @@
         <v>604293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>596547</v>
+        <v>596639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>609626</v>
+        <v>609667</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9840747687000374</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9714613023926568</v>
+        <v>0.9716114176199394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9927604560990941</v>
+        <v>0.9928263077031277</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1066</v>
@@ -3487,19 +3487,19 @@
         <v>1206907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1194067</v>
+        <v>1195975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1215107</v>
+        <v>1214858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9822719837081123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9718223259425669</v>
+        <v>0.9733747329283972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9889462359397525</v>
+        <v>0.9887434933108615</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>13288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6605</v>
+        <v>6802</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24086</v>
+        <v>22665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0310221646169876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01542065148759583</v>
+        <v>0.01588016083066605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05622936733573929</v>
+        <v>0.05291288658785136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3612,19 +3612,19 @@
         <v>8490</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4105</v>
+        <v>4085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16815</v>
+        <v>15722</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01895973608504526</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009168108087383775</v>
+        <v>0.009122168639918873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03755098029182592</v>
+        <v>0.03510864359321612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3633,19 +3633,19 @@
         <v>21778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12982</v>
+        <v>13171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34342</v>
+        <v>33193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02485701641902772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01481753942025771</v>
+        <v>0.01503315660259282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03919633917742067</v>
+        <v>0.03788527049447197</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>415056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>404258</v>
+        <v>405679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421739</v>
+        <v>421542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9689778353830124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9437706326642606</v>
+        <v>0.9470871134121486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845793485124041</v>
+        <v>0.9841198391693339</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>398</v>
@@ -3683,19 +3683,19 @@
         <v>439310</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>430985</v>
+        <v>432078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>443695</v>
+        <v>443715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9810402639149547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.962449019708174</v>
+        <v>0.9648913564067835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9908318919126162</v>
+        <v>0.9908778313600811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>779</v>
@@ -3704,19 +3704,19 @@
         <v>854366</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>841802</v>
+        <v>842951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>863162</v>
+        <v>862973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9751429835809723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9608036608225796</v>
+        <v>0.9621147295055281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9851824605797422</v>
+        <v>0.9849668433974071</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>17581</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8877</v>
+        <v>9569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29768</v>
+        <v>30096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05711779657676887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02883969063350313</v>
+        <v>0.03108984619997896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09671494650835147</v>
+        <v>0.09777989868738568</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3829,19 +3829,19 @@
         <v>9552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4765</v>
+        <v>4661</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17454</v>
+        <v>17387</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02705510832196059</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01349669710719325</v>
+        <v>0.01320117872652009</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04943542957590991</v>
+        <v>0.0492467295499724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -3850,19 +3850,19 @@
         <v>27133</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17083</v>
+        <v>17021</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42243</v>
+        <v>41893</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04105690372996122</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02584954684995366</v>
+        <v>0.02575598272557358</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06392107879893316</v>
+        <v>0.06339263109166621</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>290214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278027</v>
+        <v>277699</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>298918</v>
+        <v>298226</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9428822034232311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9032850534916487</v>
+        <v>0.9022201013126157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9711603093664969</v>
+        <v>0.9689101538000215</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>334</v>
@@ -3900,19 +3900,19 @@
         <v>343507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>335605</v>
+        <v>335672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348294</v>
+        <v>348398</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9729448916780394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9505645704240899</v>
+        <v>0.9507532704500274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9865033028928067</v>
+        <v>0.9867988212734798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>603</v>
@@ -3921,19 +3921,19 @@
         <v>633721</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>618611</v>
+        <v>618961</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>643771</v>
+        <v>643833</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9589430962700388</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9360789212010669</v>
+        <v>0.9366073689083345</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9741504531500463</v>
+        <v>0.9742440172744266</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>9867</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4296</v>
+        <v>4655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19093</v>
+        <v>19401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03997410602716529</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0174029205242497</v>
+        <v>0.01885776151138207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07734714638908391</v>
+        <v>0.07859633232047974</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4046,19 +4046,19 @@
         <v>13285</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6602</v>
+        <v>6658</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22116</v>
+        <v>21090</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03434994683283198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01706989794468457</v>
+        <v>0.01721434346251423</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05718383695593881</v>
+        <v>0.05452997855590986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4067,19 +4067,19 @@
         <v>23152</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14546</v>
+        <v>14266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36901</v>
+        <v>36604</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03654107381884421</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02295711415178207</v>
+        <v>0.02251651587146709</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05824023318629011</v>
+        <v>0.05777112316040084</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>236977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227751</v>
+        <v>227443</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242548</v>
+        <v>242189</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9600258939728347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9226528536109158</v>
+        <v>0.92140366767952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9825970794757501</v>
+        <v>0.9811422384886175</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>336</v>
@@ -4117,19 +4117,19 @@
         <v>373468</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>364637</v>
+        <v>365663</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>380151</v>
+        <v>380095</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.965650053167168</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9428161630440612</v>
+        <v>0.9454700214440901</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9829301020553154</v>
+        <v>0.9827856565374857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>548</v>
@@ -4138,19 +4138,19 @@
         <v>610445</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>596696</v>
+        <v>596993</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>619051</v>
+        <v>619331</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9634589261811558</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.94175976681371</v>
+        <v>0.9422288768395991</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9770428858482183</v>
+        <v>0.9774834841285329</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>96805</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>76042</v>
+        <v>75525</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117649</v>
+        <v>118212</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0283379203174748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0222599411261059</v>
+        <v>0.02210851730124338</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03443947384500962</v>
+        <v>0.03460428374438442</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>93</v>
@@ -4263,19 +4263,19 @@
         <v>101318</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82708</v>
+        <v>82317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>123063</v>
+        <v>125755</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02857059972085094</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02332279770277957</v>
+        <v>0.02321274383528633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03470268551698643</v>
+        <v>0.03546175182510768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -4284,19 +4284,19 @@
         <v>198123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>169478</v>
+        <v>170430</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>229008</v>
+        <v>229839</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02845643421844046</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02434214460051584</v>
+        <v>0.02447892235996506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0328924476922333</v>
+        <v>0.03301181282722718</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3319298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3298454</v>
+        <v>3297891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3340061</v>
+        <v>3340578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9716620796825252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.96556052615499</v>
+        <v>0.9653957162556155</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.977740058873894</v>
+        <v>0.9778914826987566</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3194</v>
@@ -4334,19 +4334,19 @@
         <v>3444899</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3423154</v>
+        <v>3420462</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3463509</v>
+        <v>3463900</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.971429400279149</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.965297314483013</v>
+        <v>0.9645382481748932</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9766772022972203</v>
+        <v>0.9767872561647137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6311</v>
@@ -4355,19 +4355,19 @@
         <v>6764197</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6733312</v>
+        <v>6732481</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6792842</v>
+        <v>6791890</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9715435657815595</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9671075523077676</v>
+        <v>0.9669881871727728</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9756578553994844</v>
+        <v>0.9755210776400349</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>2833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7635</v>
+        <v>8453</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006752800344402982</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002205463240824284</v>
+        <v>0.002209446035353996</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0182022217924859</v>
+        <v>0.02015115219001924</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4723,19 +4723,19 @@
         <v>9783</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4988</v>
+        <v>4877</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17159</v>
+        <v>17577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.024720929300604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01260381974140266</v>
+        <v>0.01232360230825443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04335849673131106</v>
+        <v>0.04441321415846596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>12616</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7502</v>
+        <v>7165</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21470</v>
+        <v>21641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01547559218098855</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009202459848478079</v>
+        <v>0.008789071409599787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02633648366445535</v>
+        <v>0.02654641284849091</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>416630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411828</v>
+        <v>411010</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418538</v>
+        <v>418536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.993247199655597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9817977782075141</v>
+        <v>0.9798488478099808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977945367591757</v>
+        <v>0.997790553964646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>394</v>
@@ -4794,19 +4794,19 @@
         <v>385972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378596</v>
+        <v>378178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390767</v>
+        <v>390878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.975279070699396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9566415032686887</v>
+        <v>0.9555867858415343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9873961802585972</v>
+        <v>0.9876763976917456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>784</v>
@@ -4815,19 +4815,19 @@
         <v>802602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>793748</v>
+        <v>793577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>807716</v>
+        <v>808053</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9845244078190114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9736635163355446</v>
+        <v>0.9734535871515096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9907975401515219</v>
+        <v>0.9912109285904013</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>18707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11798</v>
+        <v>11026</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29109</v>
+        <v>27892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03168091527306022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01998026407786193</v>
+        <v>0.01867237380641642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04929564284984365</v>
+        <v>0.04723477440079508</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4940,19 +4940,19 @@
         <v>14143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7851</v>
+        <v>8250</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23000</v>
+        <v>23115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0250958043470996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01393108728534392</v>
+        <v>0.0146397144245071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04081234908093525</v>
+        <v>0.04101634517212024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -4961,19 +4961,19 @@
         <v>32850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22250</v>
+        <v>23042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45564</v>
+        <v>45041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02846525737267351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01927979976094343</v>
+        <v>0.01996667115559115</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03948175595447682</v>
+        <v>0.03902924747512028</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>571789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>561387</v>
+        <v>562604</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>578698</v>
+        <v>579470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9683190847269398</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9507043571501566</v>
+        <v>0.952765225599205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.980019735922139</v>
+        <v>0.9813276261935837</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>565</v>
@@ -5011,19 +5011,19 @@
         <v>549401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>540544</v>
+        <v>540429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555693</v>
+        <v>555294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9749041956529004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9591876509190649</v>
+        <v>0.9589836548278797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9860689127146562</v>
+        <v>0.9853602855754929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1114</v>
@@ -5032,19 +5032,19 @@
         <v>1121190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1108476</v>
+        <v>1108999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1131790</v>
+        <v>1130998</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9715347426273265</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9605182440455234</v>
+        <v>0.9609707525248797</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9807202002390569</v>
+        <v>0.9800333288444089</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>14911</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8301</v>
+        <v>8444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25375</v>
+        <v>24653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02228578091397253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01240638817423557</v>
+        <v>0.01261943922568127</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03792458793633672</v>
+        <v>0.03684490787356937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5157,19 +5157,19 @@
         <v>14323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7741</v>
+        <v>7713</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23090</v>
+        <v>22809</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02165573441249021</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01170354673298996</v>
+        <v>0.01166139045227398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03491105927550287</v>
+        <v>0.03448699281067603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -5178,19 +5178,19 @@
         <v>29234</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19856</v>
+        <v>20351</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41739</v>
+        <v>42975</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02197258328506359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01492390664240118</v>
+        <v>0.01529600430601201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03137139757573279</v>
+        <v>0.0323003352174324</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>654186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643722</v>
+        <v>644444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660796</v>
+        <v>660653</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9777142190860275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9620754120636633</v>
+        <v>0.9631550921264307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9875936118257644</v>
+        <v>0.9873805607743188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -5228,19 +5228,19 @@
         <v>647063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638296</v>
+        <v>638577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653645</v>
+        <v>653673</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9783442655875098</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9650889407244971</v>
+        <v>0.9655130071893239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.98829645326701</v>
+        <v>0.9883386095477259</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1275</v>
@@ -5249,19 +5249,19 @@
         <v>1301249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1288744</v>
+        <v>1287508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1310627</v>
+        <v>1310132</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9780274167149364</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9686286024242672</v>
+        <v>0.9676996647825675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9850760933575988</v>
+        <v>0.9847039956939878</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>11974</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6450</v>
+        <v>6523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21843</v>
+        <v>21209</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01853470901010604</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009984530253114651</v>
+        <v>0.01009695502478545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03381094797051976</v>
+        <v>0.03282831162880861</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -5374,19 +5374,19 @@
         <v>5238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2011</v>
+        <v>2030</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11637</v>
+        <v>11691</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008069836140247897</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003098005394893608</v>
+        <v>0.003128008692286879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01792857899445606</v>
+        <v>0.01801170700807176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -5395,19 +5395,19 @@
         <v>17212</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10329</v>
+        <v>10727</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28272</v>
+        <v>27515</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01329003656106462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007975488028917635</v>
+        <v>0.008282355045588632</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0218293974086318</v>
+        <v>0.02124467806998278</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>634074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>624205</v>
+        <v>624839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639598</v>
+        <v>639525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.981465290989894</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9661890520294805</v>
+        <v>0.9671716883711915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900154697468855</v>
+        <v>0.9899030449752146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>597</v>
@@ -5445,19 +5445,19 @@
         <v>643839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>637440</v>
+        <v>637386</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647066</v>
+        <v>647047</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9919301638597521</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9820714210055439</v>
+        <v>0.9819882929919288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9969019946051063</v>
+        <v>0.9968719913077131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1168</v>
@@ -5466,19 +5466,19 @@
         <v>1277913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1266853</v>
+        <v>1267610</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1284796</v>
+        <v>1284398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9867099634389354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9781706025913681</v>
+        <v>0.9787553219300171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9920245119710823</v>
+        <v>0.9917176449544113</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>9955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4410</v>
+        <v>4459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18500</v>
+        <v>17428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02083017906174673</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009228186373806777</v>
+        <v>0.009330978070356408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0387091829731911</v>
+        <v>0.03646555312771325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5591,19 +5591,19 @@
         <v>17555</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9868</v>
+        <v>10055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27745</v>
+        <v>27589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03533330635791442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01986195136716824</v>
+        <v>0.0202374019161372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05584123823740501</v>
+        <v>0.05552888392090559</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -5612,19 +5612,19 @@
         <v>27510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18506</v>
+        <v>18142</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40342</v>
+        <v>40941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02822257572180239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01898514639982648</v>
+        <v>0.01861212531971356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0413862948828722</v>
+        <v>0.04200093001419088</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>467963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>459418</v>
+        <v>460490</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>473508</v>
+        <v>473459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9791698209382532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9612908170268089</v>
+        <v>0.9635344468722871</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9907718136261933</v>
+        <v>0.9906690219296437</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>418</v>
@@ -5662,19 +5662,19 @@
         <v>479294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>469104</v>
+        <v>469260</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>486981</v>
+        <v>486794</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9646666936420856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9441587617625948</v>
+        <v>0.9444711160790944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9801380486328317</v>
+        <v>0.9797625980838627</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>833</v>
@@ -5683,19 +5683,19 @@
         <v>947257</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>934425</v>
+        <v>933826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>956261</v>
+        <v>956625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9717774242781976</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.958613705117128</v>
+        <v>0.9579990699858092</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9810148536001735</v>
+        <v>0.9813878746802864</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>9102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4170</v>
+        <v>4213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16202</v>
+        <v>16608</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02722515457692356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01247368872436468</v>
+        <v>0.01260263665565393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04846181516666338</v>
+        <v>0.04967589564735533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -5808,19 +5808,19 @@
         <v>8743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3867</v>
+        <v>3233</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17459</v>
+        <v>17593</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02314435343627304</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01023730664973246</v>
+        <v>0.008558881755146587</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04621721166363486</v>
+        <v>0.04657077156640133</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -5829,19 +5829,19 @@
         <v>17845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9883</v>
+        <v>10759</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28687</v>
+        <v>29388</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02506030564231143</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01387894692996514</v>
+        <v>0.01510891095343806</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04028568262006312</v>
+        <v>0.04126930165777886</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>325228</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>318128</v>
+        <v>317722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330160</v>
+        <v>330117</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9727748454230765</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9515381848333366</v>
+        <v>0.9503241043526448</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9875263112756353</v>
+        <v>0.9873973633443461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>347</v>
@@ -5879,19 +5879,19 @@
         <v>369019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>360303</v>
+        <v>360169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>373895</v>
+        <v>374529</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9768556465637269</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9537827883363649</v>
+        <v>0.9534292284335983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9897626933502676</v>
+        <v>0.9914411182448534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>664</v>
@@ -5900,19 +5900,19 @@
         <v>694247</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>683405</v>
+        <v>682704</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>702209</v>
+        <v>701333</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9749396943576886</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9597143173799371</v>
+        <v>0.9587306983422214</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9861210530700349</v>
+        <v>0.9848910890465625</v>
       </c>
     </row>
     <row r="21">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5177</v>
+        <v>5008</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006425850677459414</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02014456710673861</v>
+        <v>0.01948586870710022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6025,19 +6025,19 @@
         <v>10179</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5035</v>
+        <v>4947</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19325</v>
+        <v>19252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02543558762288403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01258333534378781</v>
+        <v>0.01236319552596156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04829164815640741</v>
+        <v>0.04810912599481717</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -6046,19 +6046,19 @@
         <v>11830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6191</v>
+        <v>5823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21621</v>
+        <v>20709</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01800145841058179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009420632535734795</v>
+        <v>0.008860167212277795</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03290040764643856</v>
+        <v>0.0315132910103564</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6075,7 @@
         <v>255347</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251821</v>
+        <v>251990</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>256998</v>
@@ -6084,7 +6084,7 @@
         <v>0.9935741493225406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9798554328932618</v>
+        <v>0.9805141312928998</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6096,19 +6096,19 @@
         <v>389990</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>380844</v>
+        <v>380917</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395134</v>
+        <v>395222</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.974564412377116</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9517083518435926</v>
+        <v>0.9518908740051829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9874166646562123</v>
+        <v>0.9876368044740385</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>593</v>
@@ -6117,19 +6117,19 @@
         <v>645337</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>635546</v>
+        <v>636458</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>650976</v>
+        <v>651344</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9819985415894182</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9670995923535616</v>
+        <v>0.968486708989644</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9905793674642653</v>
+        <v>0.9911398327877222</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>69134</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54550</v>
+        <v>51940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86130</v>
+        <v>88020</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0203674935763462</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01607082374184086</v>
+        <v>0.01530176753567606</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02537461154884219</v>
+        <v>0.02593140041387221</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -6242,19 +6242,19 @@
         <v>79964</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62727</v>
+        <v>61573</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101925</v>
+        <v>97839</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02255966330879475</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01769682647381617</v>
+        <v>0.01737134170840455</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02875556657475938</v>
+        <v>0.02760262118059435</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -6263,19 +6263,19 @@
         <v>149098</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>127489</v>
+        <v>126685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178054</v>
+        <v>175066</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0214873030938403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01837309818930853</v>
+        <v>0.01825729669033089</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02566026813376164</v>
+        <v>0.02522968154873258</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3325216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3308220</v>
+        <v>3306330</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3339800</v>
+        <v>3342410</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9796325064236538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9746253884511579</v>
+        <v>0.9740685995861277</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9839291762581592</v>
+        <v>0.9846982324643239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3265</v>
@@ -6313,19 +6313,19 @@
         <v>3464578</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3442617</v>
+        <v>3446703</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3481815</v>
+        <v>3482969</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9774403366912052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9712444334252406</v>
+        <v>0.9723973788194056</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9823031735261838</v>
+        <v>0.9826286582915954</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6431</v>
@@ -6334,19 +6334,19 @@
         <v>6789794</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6760838</v>
+        <v>6763826</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6811403</v>
+        <v>6812207</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9785126969061597</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9743397318662388</v>
+        <v>0.9747703184512673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9816269018106918</v>
+        <v>0.9817427033096686</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>7274</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22591</v>
+        <v>19241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01783673904941715</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004175363742674665</v>
+        <v>0.004166651882642715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05539882550316899</v>
+        <v>0.04718306745663917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -6702,19 +6702,19 @@
         <v>9903</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3246</v>
+        <v>3630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20252</v>
+        <v>20137</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02731845288056397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008952949756771833</v>
+        <v>0.0100124095484409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05586680456008774</v>
+        <v>0.05554751478264151</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -6723,19 +6723,19 @@
         <v>17177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8204</v>
+        <v>7904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31487</v>
+        <v>32575</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02229891265481472</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01064995815755029</v>
+        <v>0.01026034497874611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04087606930363713</v>
+        <v>0.04228861715936413</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>400519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385202</v>
+        <v>388552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406090</v>
+        <v>406094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9821632609505829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446011744968321</v>
+        <v>0.9528169325433608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958246362573253</v>
+        <v>0.9958333481173574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>201</v>
@@ -6773,19 +6773,19 @@
         <v>352609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>342260</v>
+        <v>342375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>359266</v>
+        <v>358882</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9726815471194361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9441331954399124</v>
+        <v>0.9444524852173587</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9910470502432281</v>
+        <v>0.9899875904515593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>370</v>
@@ -6794,19 +6794,19 @@
         <v>753128</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>738818</v>
+        <v>737730</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762101</v>
+        <v>762401</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9777010873451855</v>
+        <v>0.9777010873451851</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9591239306963627</v>
+        <v>0.9577113828406358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9893500418424495</v>
+        <v>0.9897396550212541</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>6374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18398</v>
+        <v>17299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01336598569390282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002921023357242395</v>
+        <v>0.002904723818572764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03857864805533382</v>
+        <v>0.03627439667874226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6919,19 +6919,19 @@
         <v>12444</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6514</v>
+        <v>6778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21666</v>
+        <v>22127</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02483510316776003</v>
+        <v>0.02483510316776002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01300013123436023</v>
+        <v>0.01352590139051542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04323835219487301</v>
+        <v>0.0441592717297018</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -6940,19 +6940,19 @@
         <v>18819</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10559</v>
+        <v>11356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31861</v>
+        <v>32262</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01924240430332248</v>
+        <v>0.01924240430332247</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01079693904941738</v>
+        <v>0.01161181745207606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03257844442731768</v>
+        <v>0.0329890260125809</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>470516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458492</v>
+        <v>459591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475497</v>
+        <v>475505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866340143060971</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9614213519446663</v>
+        <v>0.9637256033212565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9970789766427576</v>
+        <v>0.9970952761814271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -6990,19 +6990,19 @@
         <v>488639</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479417</v>
+        <v>478956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494569</v>
+        <v>494305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9751648968322398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9567616478051261</v>
+        <v>0.9558407282702982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9869998687656398</v>
+        <v>0.9864740986094845</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -7011,19 +7011,19 @@
         <v>959154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946112</v>
+        <v>945711</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>967414</v>
+        <v>966617</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9807575956966774</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9674215555726823</v>
+        <v>0.9670109739874192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9892030609505826</v>
+        <v>0.9883881825479239</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>13352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7465</v>
+        <v>6492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22850</v>
+        <v>22406</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02150599028809306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01202447430641069</v>
+        <v>0.01045714113250436</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03680581574478033</v>
+        <v>0.03608994267442287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -7136,19 +7136,19 @@
         <v>17721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11969</v>
+        <v>11796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25176</v>
+        <v>25861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02848403499929409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01923897540774354</v>
+        <v>0.01896004639222451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04046696195507281</v>
+        <v>0.04156756802278124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -7157,19 +7157,19 @@
         <v>31073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21944</v>
+        <v>22237</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42874</v>
+        <v>42897</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02499866854849902</v>
+        <v>0.02499866854849901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01765440685408075</v>
+        <v>0.01788994769367628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03449310750542265</v>
+        <v>0.03451129167946348</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>607485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>597987</v>
+        <v>598431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613372</v>
+        <v>614345</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.978494009711907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9631941842552199</v>
+        <v>0.963910057325577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9879755256935894</v>
+        <v>0.9895428588674958</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>821</v>
@@ -7207,19 +7207,19 @@
         <v>604418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596963</v>
+        <v>596278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610170</v>
+        <v>610343</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9715159650007057</v>
+        <v>0.9715159650007059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.959533038044927</v>
+        <v>0.9584324319772186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9807610245922566</v>
+        <v>0.9810399536077755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1355</v>
@@ -7228,19 +7228,19 @@
         <v>1211903</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1200102</v>
+        <v>1200079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1221032</v>
+        <v>1220739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.975001331451501</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9655068924945773</v>
+        <v>0.9654887083205363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9823455931459193</v>
+        <v>0.9821100523063236</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>20792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12310</v>
+        <v>12604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32391</v>
+        <v>32077</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02967664957195495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01757031667141444</v>
+        <v>0.01799025734334063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04623207929371539</v>
+        <v>0.04578342298512136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -7353,19 +7353,19 @@
         <v>21278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14969</v>
+        <v>15030</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29375</v>
+        <v>29519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02887613263887995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02031420644592958</v>
+        <v>0.02039700444586112</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03986307084316564</v>
+        <v>0.040059285328459</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -7374,19 +7374,19 @@
         <v>42070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30677</v>
+        <v>31833</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55714</v>
+        <v>56703</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02926629230543342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02134070759564862</v>
+        <v>0.02214469476898786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03875747412809522</v>
+        <v>0.03944556629732557</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>679825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>668226</v>
+        <v>668540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>688307</v>
+        <v>688013</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9703233504280451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9537679207062855</v>
+        <v>0.9542165770148786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9824296833285858</v>
+        <v>0.9820097426566594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1108</v>
@@ -7424,19 +7424,19 @@
         <v>715608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>707511</v>
+        <v>707367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>721917</v>
+        <v>721856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9711238673611201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9601369291568344</v>
+        <v>0.959940714671541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9796857935540704</v>
+        <v>0.9796029955541389</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1755</v>
@@ -7445,19 +7445,19 @@
         <v>1395434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1381790</v>
+        <v>1380801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1406827</v>
+        <v>1405671</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9707337076945666</v>
+        <v>0.9707337076945668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9612425258719045</v>
+        <v>0.960554433702673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9786592924043515</v>
+        <v>0.9778553052310116</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>14948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9307</v>
+        <v>8799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23859</v>
+        <v>22410</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02457170270810001</v>
+        <v>0.0245717027081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01529830980788823</v>
+        <v>0.01446280097768845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0392178744268642</v>
+        <v>0.0368372659057459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -7570,19 +7570,19 @@
         <v>26175</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19313</v>
+        <v>18822</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34603</v>
+        <v>35447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04309084624665688</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0317942603755041</v>
+        <v>0.03098473241377138</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05696420218287154</v>
+        <v>0.05835364619154974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -7591,19 +7591,19 @@
         <v>41124</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32326</v>
+        <v>31510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52534</v>
+        <v>52702</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03382433500585606</v>
+        <v>0.03382433500585605</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02658771824543545</v>
+        <v>0.02591729826078843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04320942712442055</v>
+        <v>0.04334715453567066</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>593411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>584500</v>
+        <v>585949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599052</v>
+        <v>599560</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9754282972919002</v>
+        <v>0.9754282972919001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9607821255731359</v>
+        <v>0.9631627340942548</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.984701690192112</v>
+        <v>0.9855371990223116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>958</v>
@@ -7641,19 +7641,19 @@
         <v>581273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>572845</v>
+        <v>572001</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>588135</v>
+        <v>588626</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9569091537533431</v>
+        <v>0.9569091537533428</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9430357978171281</v>
+        <v>0.9416463538084502</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9682057396244959</v>
+        <v>0.9690152675862288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1603</v>
@@ -7662,19 +7662,19 @@
         <v>1174683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1163273</v>
+        <v>1163105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1183481</v>
+        <v>1184297</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.966175664994144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9567905728755791</v>
+        <v>0.9566528454643293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9734122817545644</v>
+        <v>0.9740827017392115</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>10280</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5945</v>
+        <v>6173</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16707</v>
+        <v>17532</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02525229735204683</v>
+        <v>0.02525229735204684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01460377433116012</v>
+        <v>0.01516502797163777</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04104025742926851</v>
+        <v>0.04306653674890523</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -7787,19 +7787,19 @@
         <v>15408</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10500</v>
+        <v>10020</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22377</v>
+        <v>21478</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03508433524793424</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02390870373861469</v>
+        <v>0.02281641457047121</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05095270850747641</v>
+        <v>0.04890611858472108</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -7808,19 +7808,19 @@
         <v>25688</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18714</v>
+        <v>18729</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34453</v>
+        <v>34970</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03035471322544187</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02211425593174383</v>
+        <v>0.02213227022145586</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04071289860288729</v>
+        <v>0.04132355098864102</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>396800</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>390373</v>
+        <v>389548</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>401135</v>
+        <v>400907</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9747477026479531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9589597425707314</v>
+        <v>0.956933463251096</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9853962256688398</v>
+        <v>0.9848349720283622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>800</v>
@@ -7858,19 +7858,19 @@
         <v>423758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>416789</v>
+        <v>417688</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>428666</v>
+        <v>429146</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9649156647520658</v>
+        <v>0.9649156647520657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9490472914925234</v>
+        <v>0.9510938814152787</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9760912962613851</v>
+        <v>0.9771835854295287</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1355</v>
@@ -7879,19 +7879,19 @@
         <v>820558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>811793</v>
+        <v>811276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>827532</v>
+        <v>827517</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9696452867745581</v>
+        <v>0.9696452867745582</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9592871013971127</v>
+        <v>0.9586764490113584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9778857440682562</v>
+        <v>0.9778677297785441</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>9128</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5011</v>
+        <v>4739</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15082</v>
+        <v>15366</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02947379338193508</v>
+        <v>0.02947379338193507</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01618086140850193</v>
+        <v>0.01530162436436411</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.048697658704393</v>
+        <v>0.04961668745185847</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -8004,19 +8004,19 @@
         <v>21212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14699</v>
+        <v>15317</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30204</v>
+        <v>31175</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04580595826009366</v>
+        <v>0.04580595826009365</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03174250477163552</v>
+        <v>0.03307659638265219</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06522333819901577</v>
+        <v>0.06732033576932675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -8025,19 +8025,19 @@
         <v>30340</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22861</v>
+        <v>22811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40312</v>
+        <v>41576</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.039260610435085</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02958298198077739</v>
+        <v>0.02951770334680135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05216524413294132</v>
+        <v>0.05380041199496317</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>300575</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>294621</v>
+        <v>294337</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304692</v>
+        <v>304964</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9705262066180649</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.951302341295607</v>
+        <v>0.9503833125481415</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9838191385914982</v>
+        <v>0.9846983756356359</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>844</v>
@@ -8075,19 +8075,19 @@
         <v>441867</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>432875</v>
+        <v>431904</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>448380</v>
+        <v>447762</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9541940417399066</v>
+        <v>0.9541940417399063</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9347766618009831</v>
+        <v>0.9326796642306729</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9682574952283646</v>
+        <v>0.9669234036173477</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1287</v>
@@ -8096,19 +8096,19 @@
         <v>742442</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>732470</v>
+        <v>731206</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>749921</v>
+        <v>749971</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9607393895649149</v>
+        <v>0.960739389564915</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9478347558670586</v>
+        <v>0.9461995880050369</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9704170180192229</v>
+        <v>0.9704822966531986</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>82148</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64843</v>
+        <v>63411</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104037</v>
+        <v>104393</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02326288178850716</v>
+        <v>0.02326288178850715</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01836246613602113</v>
+        <v>0.01795689111509104</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02946142738698069</v>
+        <v>0.02956241436597362</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -8221,19 +8221,19 @@
         <v>124142</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>103330</v>
+        <v>106334</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>142213</v>
+        <v>144233</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03326147151352506</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0276852947226661</v>
+        <v>0.02849019274602221</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03810324241767862</v>
+        <v>0.03864449078735222</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>261</v>
@@ -8242,19 +8242,19 @@
         <v>206290</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>179194</v>
+        <v>178349</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>236701</v>
+        <v>232881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02840054169036155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02467020864503974</v>
+        <v>0.02455387965182898</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03258733819540732</v>
+        <v>0.03206136476803524</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3449132</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3427243</v>
+        <v>3426887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3466437</v>
+        <v>3467869</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.976737118211493</v>
+        <v>0.9767371182114928</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9705385726130197</v>
+        <v>0.9704375856340263</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9816375338639789</v>
+        <v>0.9820431088849089</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5180</v>
@@ -8292,19 +8292,19 @@
         <v>3608171</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3590100</v>
+        <v>3588080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3628983</v>
+        <v>3625979</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.966738528486475</v>
+        <v>0.9667385284864749</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9618967575823212</v>
+        <v>0.9613555092126475</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9723147052773339</v>
+        <v>0.9715098072539776</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8472</v>
@@ -8313,19 +8313,19 @@
         <v>7057303</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7026892</v>
+        <v>7030712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7084399</v>
+        <v>7085244</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9715994583096385</v>
+        <v>0.9715994583096383</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9674126618045927</v>
+        <v>0.9679386352319647</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9753297913549602</v>
+        <v>0.975446120348171</v>
       </c>
     </row>
     <row r="27">
